--- a/biology/Zoologie/Breviceps_macrops/Breviceps_macrops.xlsx
+++ b/biology/Zoologie/Breviceps_macrops/Breviceps_macrops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Breviceps macrops est une espèce d'amphibiens de la famille des Brevicipitidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Breviceps macrops est une espèce d'amphibiens de la famille des Brevicipitidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la côte du Namaqualand[1]. Elle se rencontre jusqu'à 10 km du littoral de Kleinsee en Afrique du Sud à Lüderitz en Namibie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la côte du Namaqualand. Elle se rencontre jusqu'à 10 km du littoral de Kleinsee en Afrique du Sud à Lüderitz en Namibie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Breviceps macrops[2] mesure 48 mm. Cette espèce a la face dorsale d'une couleur sable pâle avec des points brun foncé ou des marbrures. Sa tête est ornée d'une large bande de forme angulaire ou incurvée reliant les deux paupières à l'arrière de la tête et une fine raie sur son front. Sa face ventrale est blanche. Elle émet un croassement semblable au son émis par un jouet en plastique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Breviceps macrops mesure 48 mm. Cette espèce a la face dorsale d'une couleur sable pâle avec des points brun foncé ou des marbrures. Sa tête est ornée d'une large bande de forme angulaire ou incurvée reliant les deux paupières à l'arrière de la tête et une fine raie sur son front. Sa face ventrale est blanche. Elle émet un croassement semblable au son émis par un jouet en plastique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du grec ancien μακρός, makrós, « grand », et ὄψ, óps, « œil », lui a été donné en référence à ses très grands yeux, d'un diamètre d'environ 6 à 8 mm soit 12 à 15 % de la longueur du corps[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du grec ancien μακρός, makrós, « grand », et ὄψ, óps, « œil », lui a été donné en référence à ses très grands yeux, d'un diamètre d'environ 6 à 8 mm soit 12 à 15 % de la longueur du corps.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1907 : Description of a new Engystomatid Frog of the Genus Breviceps from Namaqualand. Annals and Magazine of Natural History, ser. 7, vol. 20, p. 47-49 (texte intégral).</t>
         </is>
